--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5504587155963303</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4285714285714285</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5479041916167665</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7045009784735812</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4850299401197605</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08867283354284017</v>
+        <v>0.1626577542912819</v>
       </c>
       <c r="J2" t="n">
-        <v>1122.875650369534</v>
+        <v>2086.483300219097</v>
       </c>
       <c r="K2" t="n">
-        <v>1793918.189483321</v>
+        <v>5360332.130910343</v>
       </c>
       <c r="L2" t="n">
-        <v>1339.372311750292</v>
+        <v>2315.239108798558</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6673409620992472</v>
+        <v>0.005995401601503136</v>
       </c>
     </row>
   </sheetData>
